--- a/Production/C3R/JLC/JLCSMT_Sample_BOM1.xlsx
+++ b/Production/C3R/JLC/JLCSMT_Sample_BOM1.xlsx
@@ -142,7 +142,7 @@
     <t xml:space="preserve">R_0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C101083</t>
+    <t xml:space="preserve">C23186</t>
   </si>
   <si>
     <t xml:space="preserve">TPD4E05U06DQAR</t>
@@ -326,7 +326,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A5:D5 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
